--- a/biology/Mycologie/Leucostoma_kunzei/Leucostoma_kunzei.xlsx
+++ b/biology/Mycologie/Leucostoma_kunzei/Leucostoma_kunzei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucostoma kunzei est une espèce de champignons ascomycètes de la famille des Valsaceae, originaire de l'hémisphère Nord.
 Ce champignon, ainsi que d'autres espèces du même genre, est l'agent responsable d'une maladie fongique, le chancre cytosporéen, qui affecte de nombreuses espèces d'arbres et arbustes, notamment des conifères.
@@ -512,9 +524,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (24 mars 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (24 mars 2017) :
 Cytospora kunzei Sacc., 1884
 Cytospora kunzei var. kunzei Sacc., 1884
 Cytospora kunzei var. piceae Waterman, 1955
